--- a/Src/Binary/Readme-ForEachBinDescript.xlsx
+++ b/Src/Binary/Readme-ForEachBinDescript.xlsx
@@ -586,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
